--- a/doc/_meeting_doc/N2_Team_Schedule.xlsx
+++ b/doc/_meeting_doc/N2_Team_Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,31 +65,419 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토 타입 로그인 창 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">91장: NormalMapping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87장: EnviromentMap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88장: DynamicEnviromentMap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">130장: DepthMap Shadow </t>
+  </si>
+  <si>
+    <t>75장? Vertexnormalsfastlookup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93장: QuadTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100장: SLOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103장: MousePicking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102장: BSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC TileRender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC 지형 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트 매니저 (77장 DiffuseLight, 78장 SpecularLight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC Save, Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64장: skybox, 67장: sky object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이트 매니저 (79장 PointLight ,80장 SpotLight)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜레이 작업 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92장: Posteffect </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water( 파도 처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water( 포그 추가, 거리 포그, 높이 포그) ****</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water( 노말맵흔들기 , 포말(물거품 효과) ****</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water( 클립플랜 앞 및 뒤 랜더링)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">129장: projectionShadow </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65장: Sphree Tesslation ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122장: Tesselation ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 발표 엔진 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표 엔진 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 배치( 오브젝트 배치 전 연동 확인 필요) *****</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 공부 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC Light Dlg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131장: Volum Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR 공부 및 적용
+120장: 컴퓨터 쉐이더
+124장: 동적 링크
+90장: 쿡 토런스
+129장: Multi Threading Render
+------------------------------------------
+실외 오클루전 적용 
+지연 랜더링 공부 및 적용
+랜더링 정보 별 동적 쉐이더 구축 작업
+패럴랙스 맵핑
+animation chatercter 배치 및 이동 루틴 설정
+pvs작업
+CSG 알고리즘 작업
+맵의 오브텍트에 이벤트 달기
+------------------------------------------
+OpenGL
+Sever연동해보기
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표(프로토타입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui resource 퀄리티 작업
+로비 및 룸 서버와의 연동 작업
+서버와의 연동 작업 동기화 보완 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 인터페이스 작업
+( 인게임 내 정보들을 받아 서 해당 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC UI Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC UI 위치 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFC UI Scale 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture 입히기, Save, Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 순서도 작성</t>
+  </si>
+  <si>
+    <t>UI피킹,맵,오브젝트 피킹기능
+공통 인터페이스(or 구조) 구현.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진에 캐릭터 라이브러리, 맵 라이브러리, 
+이펙트 라이브러리 결합 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 처리 구현(OBB vs OBB 등.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 구현 전체 일정 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구현 전체 일정 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC대화시이벤트 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 연출 화면(컷신) 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트별 최종 라이브러리 엔진 결합 및 최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자 &amp; 포스트 이펙트 처리 구현
+기타 엔진 오류 사항 디버깅.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.파트별 쓰레드 적용할 부분 회의
+2.쓰레드 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.게임 순서도 대로 동작하는지 테스트
+2.조명처리(오브젝트,맵 적용 용도 
+공통 인터페이스 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임기획상 기능 구현
+ 1. 1인칭 카메라 구현, 두 주인공 간의 카메라 전환 구현
+ 2. 다른 주인공이 쓰러졌을때 일으켜 세우는 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트, 맵, 캐릭터 코어 구조 정리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차발표 데모용 구조, 소스 머지 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 코어 구현부 정리(Refactoring)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 캐릭터 리소스 구하기, 
+정상작동 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비 모델, 1인칭 (샷것) 발사 모델
+익스포터 출력 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 결합 테스트 1 
+(애니메이션 재생, 
+바운딩 박스 정상처리 확인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 발표 준비(각종 오류 사항 디버깅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴구현 작업
+ 1.마우스피킹 구현
+ 2.BoundingBox 렌더링. BoundingBox 추가 기능 구현
+ 3.부착물 더미 붙일 수 있는 기능. 부착물 붙여서 렌더링
+ 4.총 붙이고 총구위치 찾기
+ 5.애니메이션재생 pane 윈도우 구현
+ 6.pane 윈도우에 드래그&amp;드롭 구현
+ 7.pane 윈도우에 트리리스트로 모델 구조 표시 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴구현 작업
+ 8.캐릭터 노말표시 구현
+ 9.조명 적용 렌더 구현
+ 10.노말맵핑 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 연출 화면(컷신) 툴 구현
+1.txt 정보(카메라&amp;조명&amp;캐릭터 위치 방향, 사운드 재생 시점&amp;종료시간, 애니메이션 어떤 트랙 재생하는지&amp;재생시간, 카메라 애니메이션 정보) 출력
+2.스크립트(txt)파일 읽어서 실시간 렌더링시 txt대로 동작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 라이브러리 - 엔진 연동 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 발표 준비(각종 오류 사항 디버깅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프 셰도우(depth map shadow) 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테셀레이션 적용,
+로우폴리곤 -&gt; 하이폴리곤 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfc Tool 제작(open, save, load,play)</t>
+  </si>
+  <si>
+    <t>통합 계획서 작성</t>
+  </si>
+  <si>
+    <t>save 기능 추가</t>
+  </si>
+  <si>
+    <t>Tool Position 기능 추가</t>
+  </si>
+  <si>
+    <t>Tool Alpha Blend 값 조절 기능 추가</t>
+  </si>
+  <si>
+    <t>Effect Bounding Box 추가</t>
+  </si>
+  <si>
+    <t>Tool 제작 마무리</t>
+  </si>
+  <si>
+    <t>FSM 프로그램 구현</t>
+  </si>
+  <si>
+    <t>발표를 위한 엔진에 기능 취합 후 각 파트에서
+ 필요한 정보 받아 이펙트 처리 구현 ,프로토 타입 완성</t>
+  </si>
+  <si>
+    <t>좀비 케릭터 FSM 적용 및 테스트</t>
+  </si>
+  <si>
+    <t>길찾기 프로그램 구현</t>
+  </si>
+  <si>
+    <t>좀비 케릭터 길찾기 적용 및 테스트</t>
+  </si>
+  <si>
+    <t>Effect Resource 구하기</t>
+  </si>
+  <si>
+    <t>Particle effect 추가 기능 구현하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect tool 마우스 피킹 </t>
+  </si>
+  <si>
+    <t>ai 테스트 및 부족한 부분 구현</t>
+  </si>
+  <si>
+    <t>effect 불빛 상태 판정</t>
+  </si>
+  <si>
+    <t>좀비 불빛 판정에 따라 추적 모드입력</t>
+  </si>
+  <si>
+    <t>엔진 최적화를 위한 함수 제작 및 부족한 부분 채우기</t>
+  </si>
+  <si>
+    <t>엔진 결합 및 테스트</t>
+  </si>
+  <si>
+    <t>버그 수정 및 발표 준비</t>
+  </si>
+  <si>
+    <t>멀티 쓰레드 렌더링 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 쓰레드 로딩 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4차발표 준비. 최종 마무리 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2 팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 개발 일정표 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4차발표(최종)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차발표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2 팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 개발 일정표 -</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +501,56 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -241,28 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -571,13 +977,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,106 +1238,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -995,903 +1787,1127 @@
     <col min="2" max="2" width="4.125" customWidth="1"/>
     <col min="3" max="3" width="3.625" customWidth="1"/>
     <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="9" max="9" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="E2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1">
-      <c r="E3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+    <row r="2" spans="2:11" ht="31.5">
+      <c r="B2" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="2:11" ht="32.25" thickBot="1">
+      <c r="B3" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickTop="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>13</v>
+      <c r="K4" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="31"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" ht="17.25" thickTop="1">
-      <c r="B6" s="17">
+      <c r="B6" s="38">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="39">
         <v>4</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>24</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="32"/>
+      <c r="E6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="18"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="11">
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="5">
         <v>25</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="33"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="18"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="11">
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="5">
         <v>26</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="33" t="s">
+      <c r="E8" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="5">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="52"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="5">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="2:11" ht="33">
+      <c r="B11" s="37"/>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="37">
+        <v>11</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="2:11" ht="33">
+      <c r="B15" s="37"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="37"/>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>7</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="37"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="5">
+        <v>9</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="37"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="5">
+        <v>10</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="37"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="5">
+        <v>11</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="2:11" ht="83.25" customHeight="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="36">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="18"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="11">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="18"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="11">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="18"/>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="18">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="18"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="18"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="18"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="11">
+      <c r="E21" s="29"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="52"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" ht="49.5">
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="5">
+        <v>15</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="37"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="5">
+        <v>16</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="37"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="5">
+        <v>17</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="37"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="5">
+        <v>18</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="37"/>
+      <c r="C26" s="36">
         <v>4</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="18"/>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="18"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="11">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="18"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="18"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="11">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="18"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="11">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="18"/>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="11">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="18"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="11">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="18"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="11">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="18"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="11">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="18"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="11">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="18"/>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="D26" s="5">
         <v>21</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="33"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="18"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="11">
+      <c r="B27" s="37"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="5">
         <v>22</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="33"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="18"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="11">
+      <c r="B28" s="37"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="5">
         <v>23</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="33"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="50"/>
+      <c r="J28" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="18"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="11">
+      <c r="B29" s="37"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="5">
         <v>24</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="33"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="18"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="11">
+      <c r="B30" s="37"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="5">
         <v>25</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="50"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="18"/>
-      <c r="C31" s="3">
+      <c r="B31" s="37"/>
+      <c r="C31" s="36">
         <v>5</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="5">
         <v>28</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="33"/>
+      <c r="H31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="18"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="11">
+      <c r="B32" s="37"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="5">
         <v>29</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="33"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="18"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="11">
+      <c r="B33" s="37"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="5">
         <v>30</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="33"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="18">
+      <c r="B34" s="37">
         <v>12</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="11">
+      <c r="C34" s="36"/>
+      <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="E34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="33"/>
+      <c r="I34" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="52"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="18"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="11">
+      <c r="B35" s="37"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="5">
         <v>2</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="33"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="18"/>
-      <c r="C36" s="3">
+      <c r="B36" s="37"/>
+      <c r="C36" s="36">
         <v>1</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="5">
         <v>5</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="33"/>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="18"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="11">
+      <c r="B37" s="37"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="5">
         <v>6</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="33"/>
+      <c r="E37" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="18"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="11">
+      <c r="B38" s="37"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="5">
         <v>7</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="33"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="18"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="11">
+      <c r="B39" s="37"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="5">
         <v>8</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="33"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="18"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="11">
+      <c r="I39" s="46"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="2:11" ht="33">
+      <c r="B40" s="37"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="5">
         <v>9</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="33"/>
+      <c r="H40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="39"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="18"/>
-      <c r="C41" s="3">
+      <c r="B41" s="37"/>
+      <c r="C41" s="36">
         <v>2</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="5">
         <v>12</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="33"/>
+      <c r="I41" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="52"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="18"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="11">
+      <c r="B42" s="37"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="5">
         <v>13</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="33"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="18"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="11">
+      <c r="B43" s="37"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="5">
         <v>14</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="42"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="33"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="18"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="11">
+      <c r="B44" s="37"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="5">
         <v>15</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="33"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="18"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="11">
+      <c r="B45" s="37"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="5">
         <v>16</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="18"/>
-      <c r="C46" s="3">
+      <c r="E45" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="16.5" customHeight="1">
+      <c r="B46" s="37"/>
+      <c r="C46" s="36">
         <v>3</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="5">
         <v>19</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="1"/>
+      <c r="E46" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="33"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="18"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="11">
+      <c r="B47" s="37"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="5">
         <v>20</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="33"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="18"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="11">
+      <c r="B48" s="37"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="5">
         <v>21</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="33"/>
+      <c r="I48" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="16"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="18"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="11">
+      <c r="B49" s="37"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="5">
         <v>22</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="33"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="16"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="18"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="11">
+      <c r="B50" s="37"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="5">
         <v>23</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="1"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="33"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="16"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="18"/>
-      <c r="C51" s="3">
+      <c r="B51" s="37"/>
+      <c r="C51" s="36">
         <v>4</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="5">
         <v>26</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="33"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="18"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="11">
+      <c r="I51" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="55"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="2:11" ht="48" customHeight="1">
+      <c r="B52" s="37"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="5">
         <v>27</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="33"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="18"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="11">
+      <c r="E52" s="34"/>
+      <c r="F52" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="2:11" ht="48" customHeight="1">
+      <c r="B53" s="37"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="5">
         <v>28</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="33"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="18"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="11">
+      <c r="E53" s="29"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="2:11" ht="48" customHeight="1">
+      <c r="B54" s="37"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="5">
         <v>29</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="33"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="18"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="11">
+      <c r="E54" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="2:11" ht="48" customHeight="1">
+      <c r="B55" s="37"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="5">
         <v>30</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="18">
+      <c r="E55" s="34"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="2:11" ht="48" customHeight="1">
+      <c r="B56" s="37">
         <v>1</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="36">
         <v>1</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="5">
         <v>2</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="33"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="18"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="11">
+      <c r="E56" s="34"/>
+      <c r="F56" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="44"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" s="60"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="2:11" ht="48" customHeight="1">
+      <c r="B57" s="37"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="5">
         <v>3</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="33"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="18"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="11">
+      <c r="E57" s="34"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="2:11" ht="48" customHeight="1">
+      <c r="B58" s="37"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="5">
         <v>4</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="33"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="18"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="11">
+      <c r="E58" s="34"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="69"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="2:11" ht="48" customHeight="1">
+      <c r="B59" s="37"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="5">
         <v>5</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="33"/>
+      <c r="E59" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21">
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="11">
         <v>6</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="26"/>
+      <c r="E60" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="77"/>
     </row>
     <row r="61" spans="2:11" ht="17.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="68">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E8:J8"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="B12:B33"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="G52:G58"/>
+    <mergeCell ref="H52:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="I51:J55"/>
+    <mergeCell ref="I56:J57"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I40"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G42:G44"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C45"/>
@@ -1899,10 +2915,39 @@
     <mergeCell ref="C51:C55"/>
     <mergeCell ref="B34:B55"/>
     <mergeCell ref="C56:C60"/>
-    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="B12:B33"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="F32:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
